--- a/input files/L02F/L02F-Mapping.xlsx
+++ b/input files/L02F/L02F-Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\sample files\L02F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L02F\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -269,13 +269,7 @@
     <t>Hotel_Details_MB_Text</t>
   </si>
   <si>
-    <t>Hotel_Details_MB_Filter</t>
-  </si>
-  <si>
     <t>CB_Details_MB_Header</t>
-  </si>
-  <si>
-    <t>CB_Details_MB_Filter</t>
   </si>
   <si>
     <t>img_VP_Image</t>
@@ -329,13 +323,7 @@
     <t>div_Hotel_Details_MB_Text</t>
   </si>
   <si>
-    <t>div_Hotel_Details_MB_Filter</t>
-  </si>
-  <si>
     <t>div_CB_Details_MB_Header</t>
-  </si>
-  <si>
-    <t>div_CB_Details_MB_Filter</t>
   </si>
   <si>
     <t>TN_Section</t>
@@ -354,6 +342,12 @@
   </si>
   <si>
     <t>div_API_CityName</t>
+  </si>
+  <si>
+    <t>OG_Meta_Desc</t>
+  </si>
+  <si>
+    <t>OG_Meta_Image</t>
   </si>
 </sst>
 </file>
@@ -849,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16380"/>
+  <dimension ref="A1:D16378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +915,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -932,7 +926,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -990,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>33</v>
@@ -1001,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>34</v>
@@ -1012,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>33</v>
@@ -1023,7 +1017,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>32</v>
@@ -1034,7 +1028,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>33</v>
@@ -1045,7 +1039,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>32</v>
@@ -1056,7 +1050,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>33</v>
@@ -1067,7 +1061,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>32</v>
@@ -1122,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>33</v>
@@ -1133,7 +1127,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>34</v>
@@ -1144,7 +1138,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -1155,7 +1149,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>33</v>
@@ -1166,7 +1160,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>34</v>
@@ -1199,7 +1193,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -1210,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -1221,7 +1215,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -1232,7 +1226,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
@@ -1243,7 +1237,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>35</v>
@@ -1254,7 +1248,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
@@ -1265,7 +1259,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
@@ -1276,7 +1270,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
@@ -1284,10 +1278,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
@@ -1298,7 +1292,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
@@ -1309,7 +1303,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>35</v>
@@ -1320,55 +1314,39 @@
         <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>64</v>
+      <c r="A44" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="11"/>
@@ -50350,12 +50328,6 @@
     </row>
     <row r="16378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16378" s="11"/>
-    </row>
-    <row r="16379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16379" s="11"/>
-    </row>
-    <row r="16380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16380" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input files/L02F/L02F-Mapping.xlsx
+++ b/input files/L02F/L02F-Mapping.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Social_Site_Link3</t>
   </si>
   <si>
-    <t>SEO1_Image</t>
-  </si>
-  <si>
     <t>SEO1_Image_AltTag</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>OG_Meta_Image</t>
+  </si>
+  <si>
+    <t>SEO1_Player</t>
+  </si>
+  <si>
+    <t>div_SEO1_Player</t>
   </si>
 </sst>
 </file>
@@ -845,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -984,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>33</v>
@@ -995,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>34</v>
@@ -1006,7 +1009,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>33</v>
@@ -1017,7 +1020,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>32</v>
@@ -1028,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>33</v>
@@ -1039,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>32</v>
@@ -1050,7 +1053,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>33</v>
@@ -1061,7 +1064,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>32</v>
@@ -1113,21 +1116,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>34</v>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -1146,10 +1149,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>33</v>
@@ -1157,10 +1160,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>34</v>
@@ -1190,10 +1193,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -1201,10 +1204,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -1212,10 +1215,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -1223,10 +1226,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
@@ -1234,10 +1237,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>35</v>
@@ -1245,10 +1248,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
@@ -1256,10 +1259,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
@@ -1267,10 +1270,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
@@ -1278,10 +1281,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
@@ -1289,10 +1292,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
@@ -1300,10 +1303,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>35</v>
@@ -1311,10 +1314,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>35</v>
@@ -1322,10 +1325,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>35</v>
